--- a/Linux/Vim快捷键.xlsx
+++ b/Linux/Vim快捷键.xlsx
@@ -19,74 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
-  <si>
-    <t>移动光标的方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光标向左移动一个字符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光标向右移动一个字符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>h或向左箭头键(←)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>j或向下箭头键(↓)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>k或向上箭头键(↑)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光标向下移动一个字符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光标向上移动一个字符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>l或向右箭头</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>键</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(→)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果你将右手放在键盘上的话，你会发现hjkl是排列在一起的，因此可以使用这四个按键来移动光标。如果想要进行多次移动的话，例如向下移动30行，可以使用"30j"或"30↓"的组合按键，即加上想要进行的次数后，加上操作即可。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般模式：以vi打开一个文件直接进入就是一般模式。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>Ctrl + f</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,38 +37,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Ctrl + d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ctrl + u</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>屏幕向下移动半页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>屏幕向上移动半页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光标移动到非空格的下一行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光标移动到非空格的上一行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>n&lt;space&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -160,30 +61,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光标移动到这个屏幕最上方那一行的第一个字符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光标移动到这个屏幕中央那一行的第一个字符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光标移动到这个屏幕最下方那一行的第一个字符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>G</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -216,67 +93,230 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>/word</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?word</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向下寻找一个名称为word的字符串（常用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向上寻找一个字符串名称为word的字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N是英文按键。和n的意义相反。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:n1,n2s/word1/word2/g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:1,$s/word1/word2/g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n1、n2为数字。代表在第n1与n2行之间查找word1这个字符串，并将该字符串替换成word2。在20行到200行之间查找hello，并替换成world，则用":20,200s/hello/world/g"（常用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从第一行到最后一行查找word1，并且将该字符串替换成word2（常用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:1,$s/word1/word2/gc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从第一行到最后一行查找word1，并且将该字符串替换成word2。并且在替换前显示提示字符给用户，确认(confirm)是否需要替换（常用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x, X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nx</t>
+  </si>
+  <si>
+    <t>dd</t>
+  </si>
+  <si>
+    <t>ndd</t>
+  </si>
+  <si>
+    <t>yy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nyy</t>
+  </si>
+  <si>
+    <t>p, P</t>
+  </si>
+  <si>
+    <t>u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复原前一个劢作。(常用)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Ctrl]+r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重做上一个劢作。(常用)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i, I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a, A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o, O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r, R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入取代模式(Replace mode)： r 只会取代光标所在的那一个字符一次；R会一直取代光标所在的文字，直到按下 ESC 为止；(常用)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Esc]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出编辑模式，回到一般模式中(常用)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将编辑的数据写入文件中。（常用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:w!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若文件属性为“只读”时，强制写入该文件。但是到底能不能写入，还和当前登录用户有没有写入权限有关。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:q!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离开文件。（常用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强制离开文件。（常用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:wq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存后离开。（常用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般模式：以vi打开一个文件直接进入就是一般模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光标移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>查找与替换</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/word</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>?word</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向下寻找一个名称为word的字符串（常用）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向上寻找一个字符串名称为word的字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n是英文按键。代表重复前一个查找的操作。举例来说，如果刚才我们执行/word去向下查找word字符串，按下n后会向下继续查找下一个名称为word的字符串。如果是执行?word的话，按下n会向上继续查找名称为word的字符串。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N是英文按键。和n的意义相反。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>:n1,n2s/word1/word2/g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>:1,$s/word1/word2/g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n1、n2为数字。代表在第n1与n2行之间查找word1这个字符串，并将该字符串替换成word2。在20行到200行之间查找hello，并替换成world，则用":20,200s/hello/world/g"（常用）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从第一行到最后一行查找word1，并且将该字符串替换成word2（常用）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>:1,$s/word1/word2/gc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从第一行到最后一行查找word1，并且将该字符串替换成word2。并且在替换前显示提示字符给用户，确认(confirm)是否需要替换（常用）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>删除、复制与粘贴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入插入或取代的编辑模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令列的储存、离开等指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入插入模式(Insert mode)： i 为“从目前光标所在处插入”， I 为“在目前所在行的第一个非空格符处开始插入”。 (常用)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入插入模式(Insert mode)： a 为“从目前光标所在的下一个字符处开始插入”， A 为“从光标所在行的最后一个字符处开始插入”。(常用)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入插入模式(Insert mode)： 英文字母 o。o 为“在目前光标所在的下一行处插入新的一行”； O 为在目前光标所在处的上一行插入新的一行！(常用)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n是英文按键。代表重复前一个查找的操作。举例来说，如果刚才我们执行/word去向下查找word字符串，按下n后会向下继续查找下一个名称为word的字符串。如果是执行?word，按下n会向上继续查找名称为word的字符串。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n 为数字，连续向后删除 n 个字符。连续删除 10 个字符， 『10x』。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在一行字当中，x 为向后删除一个字符 (相当于 [del] 按键)， X 为向前删除一个字符(相当于 [backspace] 亦即是退格键) (常用)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除游标所在的那一整列(常用)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n 为数字。删除光标所在的向下 n 列，例如 20dd 则是删除 20 列 (常用)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制游标所在的那一行(常用)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n 为数字。复制光标所在的向下 n 列，例如 20yy 则是复制 20 列(常用)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p 为将已复制的数据在光标下一行贴上，P 则为贴在游标上一行！ 举例来说，我目前光标在第 20 行，且已经复制了 10 行数据。则按下 p 后， 那 10 行数据会贴在原本的 20 行之后，亦即由 21 行开始贴。但如果是按下 P 呢？ 那么原本的第 20 行会被推到变成 30 行。 (常用)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -300,20 +340,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -328,19 +380,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -622,271 +680,342 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="46" customWidth="1"/>
+    <col min="1" max="1" width="20.58203125" customWidth="1"/>
+    <col min="2" max="2" width="63.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="5"/>
+    </row>
+    <row r="2" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="6"/>
+    </row>
+    <row r="3" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="67" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="11" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="12" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="6"/>
+    </row>
+    <row r="13" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="B13" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="15" spans="1:2" ht="56" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="28" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="B15" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="17" spans="1:2" ht="53.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B17" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="29.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="B18" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="19" spans="1:2" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B19" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="6"/>
+    </row>
+    <row r="21" spans="1:2" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="B21" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="B22" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B23" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="B24" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B25" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="28" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="B26" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B27" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="B28" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="1" t="s">
+    </row>
+    <row r="29" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="B29" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B23" t="s">
+    </row>
+    <row r="30" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="5"/>
+    </row>
+    <row r="31" spans="1:2" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+      <c r="B31" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="B32" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B33" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" t="s">
+    <row r="35" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="70" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="B35" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="1" t="s">
+    </row>
+    <row r="36" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="5"/>
+    </row>
+    <row r="37" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" t="s">
+    <row r="38" spans="1:2" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="56" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="B38" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="1" t="s">
+    </row>
+    <row r="39" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="42" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="B40" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="1" t="s">
+    </row>
+    <row r="41" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
+      <c r="B41" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A36:B36"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A7:B7"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A30:B30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
